--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_2_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_2_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>3.201421350240707e-10</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.818989403545856e-12</v>
+        <v>3.201421350240707e-10</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>81289.23998785672</v>
+        <v>5495828.01119161</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>81289.23998785672</v>
+        <v>5495828.01119161</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1417295366.841188</v>
+        <v>50993008.50247726</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14105.74983989037</v>
+        <v>1072672.443866233</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>28004.12299167669</v>
+        <v>2111369.37404386</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>41912.30640519761</v>
+        <v>3150066.304221489</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>56124.18148200689</v>
+        <v>4186790.278347626</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>70322.34514627053</v>
+        <v>5224446.141522085</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>84520.5088105342</v>
+        <v>6262102.004696544</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>98718.67247479786</v>
+        <v>7299757.867870997</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>112916.8361390615</v>
+        <v>8337413.731045449</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>127114.9998033252</v>
+        <v>9375069.594219903</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>141313.1634675889</v>
+        <v>10412725.45739435</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>155511.3271318526</v>
+        <v>11450381.32056881</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>169709.4907961163</v>
+        <v>12488037.18374326</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>183907.65446038</v>
+        <v>13525693.04691773</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>198727.2105690212</v>
+        <v>14500768.40297709</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>213561.5077736627</v>
+        <v>15474375.58416246</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>177</v>
@@ -27052,10 +27052,10 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>1374</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
